--- a/Lab3/src/results/dynamicp.xlsx
+++ b/Lab3/src/results/dynamicp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/ncrothers_smu_edu/Documents/CS 3353/Repo/Lab3/src/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:40009_{1EEF901F-C15F-4994-98E4-5D38CEFE48E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{04D7EB3F-AC11-4983-9EC3-0FBB7352F2B3}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:40009_{1EEF901F-C15F-4994-98E4-5D38CEFE48E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DF86F193-8AC9-4479-AFB3-68EC10876D15}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,6 +666,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dynamicp!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>dynamicp!$C$1:$C$23</c:f>
@@ -769,6 +847,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dynamicp!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>dynamicp!$F$1:$F$23</c:f>
@@ -873,6 +1029,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2692,18 +2849,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2726,6 +2883,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CF879B-8486-4F42-8366-AB54F990531C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{546AB67C-9575-4DC4-9D8A-82FE1235050B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2740,12 +2905,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CF879B-8486-4F42-8366-AB54F990531C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>